--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>24.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007614</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票A</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007615</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票C</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>37.07</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>007614</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>德邦民裕进取量化精锐股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.07</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>007615</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>德邦民裕进取量化精锐股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -966,17 +1136,21 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1136,7 +1137,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -1151,6 +1151,100 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1251,4 +1252,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1764,4 +1765,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1773,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,17 +1785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1804,14 +1825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.62</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1820,14 +1863,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="4">
@@ -1836,14 +1967,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1852,13 +1983,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,7 +1905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,17 +1916,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1935,14 +1956,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1951,14 +1994,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.62</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -1967,14 +2098,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="5">
@@ -1983,14 +2114,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1999,13 +2130,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002214-大立科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,395 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安科技动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3147</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519957</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2198</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519956</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2109</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2039</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1187</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
+      <c r="D7" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -854,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -905,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>81.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6435</t>
+          <t>0.2096</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -943,219 +677,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>81.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3068</t>
-        </is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1983</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>33.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>33.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,7 +739,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1220,36 +769,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>71.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1343</t>
+          <t>0.3061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,7 +1381,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1826,72 +1411,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.27</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3061</t>
+          <t>0.1343</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,7 +1475,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1956,36 +1505,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>82.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2096</t>
+          <t>0.6435</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1994,34 +1543,219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.55</t>
+          <t>84.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2035,128 +1769,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.62</v>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.77</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>